--- a/homeland_security.xlsx
+++ b/homeland_security.xlsx
@@ -5,107 +5,156 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\Documents\workspace\urbanmodels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\workspace\urbanmodels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$D$3:$D$22,'Problem 1'!$M$3:$M$9</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Sheet1 (2)'!$D$3:$D$22,'Sheet1 (2)'!$M$3:$M$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 2'!$D$3:$D$22,'Problem 2'!$M$3:$M$9</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Problem 3'!$D$3:$D$22,'Problem 3'!$M$3:$M$9</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1'!$B$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Sheet1 (2)'!$B$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 2'!$B$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Problem 3'!$B$25</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$D$3:$D$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Sheet1 (2)'!$D$3:$D$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 2'!$D$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Problem 3'!$D$3:$D$22</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$J$3:$J$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Sheet1 (2)'!$J$3:$J$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 2'!$D$3:$D$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Problem 3'!$N$3:$N$9</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 1'!$M$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem 2'!$J$3:$J$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Problem 3'!$N$3:$N$9</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 1'!$M$3:$M$9</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$3:$M$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Problem 2'!$M$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Problem 3'!$N$3:$N$9</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Problem 1'!$N$3:$N$9</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Sheet1 (2)'!$N$3:$N$9</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Problem 2'!$M$3:$M$9</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Problem 3'!$N$3:$N$9</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Problem 2'!$N$3:$N$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1'!$B$26</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Sheet1 (2)'!$B$26</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 2'!$B$26</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Problem 3'!$B$26</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1'!$B$24</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Sheet1 (2)'!$B$24</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Problem 2'!$B$24</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Problem 3'!$B$24</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">binary</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">binary</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Problem 3'!$L$3:$L$9</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 1'!$M$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Problem 3'!$L$3:$L$9</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">binary</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Problem 2'!$M$12</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Problem 3'!$L$3:$L$9</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Problem 1'!$L$3:$L$9</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$3:$L$9</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Problem 3'!$L$3:$L$9</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Problem 2'!$L$3:$L$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -117,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Program</t>
   </si>
@@ -192,6 +241,15 @@
   </si>
   <si>
     <t>Vote Won Req</t>
+  </si>
+  <si>
+    <t>Answer: Yes, there is a solution!</t>
+  </si>
+  <si>
+    <t>Answer: There is still a solution, but the total protection is 25 lower.</t>
+  </si>
+  <si>
+    <t>Answer: Removed the constraints from solver other than Cost &lt;= Budget and chosen = binary.  Without any constraints besides budget, the total protection can be increased by 5</t>
   </si>
 </sst>
 </file>
@@ -555,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1197,11 @@
         <v>1095</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1146,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1305,7 @@
       </c>
       <c r="J3">
         <f>SUMPRODUCT(B3:B5,D3:D5)</f>
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="K3">
         <f>B6*D6</f>
@@ -1250,7 +1313,7 @@
       </c>
       <c r="L3">
         <f>J3+K3</f>
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -1271,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1370,7 +1433,7 @@
       </c>
       <c r="J6">
         <f>SUMPRODUCT(B12:B13,D12:D13)</f>
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <f>SUMPRODUCT(B14:B15,D14:D15)</f>
@@ -1378,7 +1441,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -1453,6 +1516,578 @@
       </c>
       <c r="J8">
         <f>SUMPRODUCT(B16:B18,D16:D18)</f>
+        <v>325</v>
+      </c>
+      <c r="K8">
+        <f>SUMPRODUCT(B19,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>300</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <f>SUMPRODUCT(B19:B22,D19:D22)</f>
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M3:M9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>80</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>SUMPRODUCT(B3:B22,D3:D22)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5">
+        <f>SUMPRODUCT(C3:C22,D3:D22)</f>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>250</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>SUMPRODUCT(B3:B5,D3:D5)</f>
+        <v>300</v>
+      </c>
+      <c r="K3">
+        <f>B6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>J3+K3</f>
+        <v>300</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUMPRODUCT(B6:B7,D6:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>B5*D5</f>
+        <v>125</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L9" si="0">J4+K4</f>
+        <v>125</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>105</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f>SUMPRODUCT(B8:B11,D8:D11)</f>
+        <v>175</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>150</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <f>SUMPRODUCT(B12:B13,D12:D13)</f>
+        <v>175</v>
+      </c>
+      <c r="K6">
+        <f>SUMPRODUCT(B14:B15,D14:D15)</f>
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <f>SUMPRODUCT(B14:B15,D14:D15)</f>
+        <v>125</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <f>SUMPRODUCT(B16:B18,D16:D18)</f>
         <v>125</v>
       </c>
       <c r="K8">
@@ -1464,11 +2099,7 @@
         <v>125</v>
       </c>
       <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1482,7 +2113,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
@@ -1504,10 +2135,6 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1536,13 +2163,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11">
-        <f>SUM(M3:M9)</f>
-        <v>4</v>
-      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1557,12 +2178,7 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1727,7 +2343,12 @@
       </c>
       <c r="B26" s="5">
         <f>SUMPRODUCT(C3:C22,D3:D22)</f>
-        <v>1095</v>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
